--- a/KINR6AE2.xlsx
+++ b/KINR6AE2.xlsx
@@ -17,49 +17,49 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>BE - PJ (KINR6AE2) /PJ</t>
+  </si>
+  <si>
+    <t>KINR6AE2</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
+    <t>PJ (KINR6AE2)</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
     <t>vendredi</t>
   </si>
   <si>
-    <t>BE - PJ (KINR6AE2) /PJ</t>
-  </si>
-  <si>
-    <t>KINR6AE2</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>PJ (KINR6AE2)</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>jeudi</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>samedi</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>lundi</t>
-  </si>
-  <si>
-    <t>dimanche</t>
   </si>
   <si>
     <t>BE - PJ (KINR6AE2) /GB</t>
@@ -128,7 +128,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44960.0</v>
+        <v>46056.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -167,7 +167,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>45002.0</v>
+        <v>46098.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>1</v>
@@ -206,7 +206,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>45008.0</v>
+        <v>46104.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>10</v>
@@ -237,7 +237,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>45009.0</v>
+        <v>46105.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>1</v>
@@ -268,7 +268,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>45010.0</v>
+        <v>46106.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>12</v>
@@ -299,7 +299,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="1">
-        <v>45012.0</v>
+        <v>46108.0</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>14</v>
@@ -338,7 +338,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="1">
-        <v>45016.0</v>
+        <v>46112.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>1</v>
@@ -369,7 +369,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>45018.0</v>
+        <v>46114.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>15</v>
@@ -408,7 +408,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>45038.0</v>
+        <v>46134.0</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>12</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>45039.0</v>
+        <v>46135.0</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>15</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>45040.0</v>
+        <v>46136.0</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>14</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="1">
-        <v>45051.0</v>
+        <v>46147.0</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>1</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="1">
-        <v>45053.0</v>
+        <v>46149.0</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>15</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n" s="1">
-        <v>45057.0</v>
+        <v>46153.0</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>10</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n" s="1">
-        <v>45058.0</v>
+        <v>46154.0</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>1</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n" s="1">
-        <v>45059.0</v>
+        <v>46155.0</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>12</v>
